--- a/academias/Biología - Estadisticos 20202.xlsx
+++ b/academias/Biología - Estadisticos 20202.xlsx
@@ -1021,25 +1021,25 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>57.89</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>42.11</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>42.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1056,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>70.59</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>29.41</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>29.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1668,25 +1668,25 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>47.37</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>52.63</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>52.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1703,25 +1703,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>61.76</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>38.24</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>38.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2315,25 +2315,25 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>57.89</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>42.11</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="J16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>42.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2350,25 +2350,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>70.59</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>29.41</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>29.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">

--- a/academias/Biología - Estadisticos 20202.xlsx
+++ b/academias/Biología - Estadisticos 20202.xlsx
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J11">
         <v>0</v>
